--- a/build/ensino/2022/08/segundo-semestre-de-2022/mes-11-dia-6-ava-matc65.xlsx
+++ b/build/ensino/2022/08/segundo-semestre-de-2022/mes-11-dia-6-ava-matc65.xlsx
@@ -449,13 +449,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -467,10 +467,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -531,10 +531,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -574,7 +574,7 @@
         <v>219119343</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -609,16 +609,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -627,10 +627,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -673,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -691,10 +691,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -723,10 +723,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -737,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -787,10 +787,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -798,13 +798,13 @@
         <v>220120072</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -979,10 +979,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1028,10 +1028,10 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1043,10 +1043,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1171,10 +1171,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1232,13 +1232,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1267,10 +1267,10 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1313,16 +1313,16 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1331,10 +1331,10 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1377,10 +1377,10 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1395,10 +1395,10 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1505,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1517,16 +1517,16 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1604,13 +1604,13 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1619,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1680,13 +1680,13 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1715,10 +1715,10 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1758,13 +1758,13 @@
         <v>221117685</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1939,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -1971,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
